--- a/Planning semanal.xlsx
+++ b/Planning semanal.xlsx
@@ -11,30 +11,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="36">
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
   <si>
     <t>Nombre de la tarea</t>
   </si>
   <si>
-    <t>Fecha de Inicio</t>
-  </si>
-  <si>
-    <t>Fecha de Fin</t>
+    <t>Fecha Inicio</t>
+  </si>
+  <si>
+    <t>Fecha Fin</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
   <si>
     <t>Diseñar la estructura básica de la base de datos,</t>
   </si>
   <si>
-    <t>haciendo modelados e insertando los datos básicos iniciales</t>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>insertando los datos básicos iniciales</t>
+  </si>
+  <si>
+    <t>Corregir posibles errores en la bbdd (sql server) y perfeccionar todo</t>
+  </si>
+  <si>
+    <t>(verificar compatibilidad de componentes de ordenadores en inserciones)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desplegar correctamente el contenedor que almacenará la bbdd </t>
+  </si>
+  <si>
+    <t>de sql server localmente, y permitir persistencia entre diferentes</t>
+  </si>
+  <si>
+    <t>ordenadores</t>
+  </si>
+  <si>
+    <t>Conectar el contenedor local con la bbdd con java y verificar que</t>
+  </si>
+  <si>
+    <t>funciona correctamente</t>
+  </si>
+  <si>
+    <t>Añadir detalles adicionales a la bbdd, así como triggers para</t>
+  </si>
+  <si>
+    <t>establecer los precios de ordenador y carrito + contenidos</t>
+  </si>
+  <si>
+    <t>Además añadir reglas de FK, decorar y comentar codigo</t>
   </si>
   <si>
     <t>Hacer la estrucutra basica del programa en java, implementando</t>
   </si>
   <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
     <t>inicio/registro, menus funcionales, la base de datos con las clases</t>
   </si>
   <si>
-    <t>principales...</t>
+    <t>principales y sus atributos + vinculacion con la clase CRUD</t>
   </si>
   <si>
     <t>Hacer todas las funciones de el programa, tanto desde la perspectiva</t>
@@ -50,16 +95,41 @@
   </si>
   <si>
     <t>?/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">añadir triggers de insert y update que verifiquen que los datos introducidos </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Opcional</t>
+  </si>
+  <si>
+    <t>al crear tablas sean compatibles directamente desde la bbdd, sin dependecia</t>
+  </si>
+  <si>
+    <t>de java, o como verificación adicional</t>
+  </si>
+  <si>
+    <t>Hacer los modelados correctamente (E-R, referencial)</t>
+  </si>
+  <si>
+    <t>Diseñar correctamente el README, con toda la explicacion del proyecto</t>
+  </si>
+  <si>
+    <t>(al final)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -68,6 +138,32 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="EB Garamond"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF38761D"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF4A86E8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="4"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -86,15 +182,60 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,90 +453,1398 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="53.13"/>
+    <col customWidth="1" min="2" max="2" width="58.63"/>
+    <col customWidth="1" min="7" max="7" width="10.13"/>
+    <col customWidth="1" min="8" max="8" width="16.13"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
         <v>45733.0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
         <v>45739.0</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45740.0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>45736.0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>45741.0</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>45741.0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>45741.0</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>45741.0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>45741.0</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>45741.0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>45742.0</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>45742.0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
         <v>45746.0</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="G22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
         <v>45747.0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="E26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
         <v>45722.0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="G26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
         <v>45754.0</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63">
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64">
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65">
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66">
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67">
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68">
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69">
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70">
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+    </row>
+    <row r="71">
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72">
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+    </row>
+    <row r="73">
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+    </row>
+    <row r="74">
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+    </row>
+    <row r="75">
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76">
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77">
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78">
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79">
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80">
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81">
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82">
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+    </row>
+    <row r="83">
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84">
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85">
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86">
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87">
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88">
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89">
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90">
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5 H8 H11 H15 H18 H22 H26 H30 H32 H36 H38">
+      <formula1>"Hecho,Pendiente,Opcional"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planning semanal.xlsx
+++ b/Planning semanal.xlsx
@@ -73,10 +73,10 @@
     <t>Hacer la estrucutra basica del programa en java, implementando</t>
   </si>
   <si>
+    <t>inicio/registro, menus funcionales, la base de datos con las clases</t>
+  </si>
+  <si>
     <t>Pendiente</t>
-  </si>
-  <si>
-    <t>inicio/registro, menus funcionales, la base de datos con las clases</t>
   </si>
   <si>
     <t>principales y sus atributos + vinculacion con la clase CRUD</t>
@@ -182,57 +182,60 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -717,21 +720,15 @@
       <c r="C11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="8">
-        <v>45741.0</v>
-      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="9">
-        <v>45741.0</v>
-      </c>
+      <c r="F11" s="14"/>
       <c r="G11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="H11" s="14"/>
       <c r="I11" s="2" t="s">
         <v>0</v>
       </c>
@@ -746,15 +743,21 @@
       <c r="C12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="8">
+        <v>45741.0</v>
+      </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="9">
+        <v>45741.0</v>
+      </c>
       <c r="G12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
@@ -827,7 +830,7 @@
       <c r="E15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="15">
         <v>45741.0</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -902,21 +905,15 @@
       <c r="C18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="8">
-        <v>45741.0</v>
-      </c>
+      <c r="D18" s="14"/>
       <c r="E18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="9">
-        <v>45742.0</v>
-      </c>
+      <c r="F18" s="14"/>
       <c r="G18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="H18" s="14"/>
       <c r="I18" s="2" t="s">
         <v>0</v>
       </c>
@@ -931,15 +928,21 @@
       <c r="C19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="8">
+        <v>45741.0</v>
+      </c>
       <c r="E19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="9">
+        <v>45742.0</v>
+      </c>
       <c r="G19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="I19" s="2" t="s">
         <v>0</v>
       </c>
@@ -1006,21 +1009,15 @@
       <c r="C22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="8">
-        <v>45742.0</v>
-      </c>
+      <c r="D22" s="14"/>
       <c r="E22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
-        <v>45746.0</v>
-      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="H22" s="14"/>
       <c r="I22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1030,20 +1027,26 @@
         <v>0</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>45742.0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>45746.0</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13"/>
       <c r="I23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1110,21 +1113,15 @@
       <c r="C26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="8">
-        <v>45747.0</v>
-      </c>
+      <c r="D26" s="14"/>
       <c r="E26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="9">
-        <v>45722.0</v>
-      </c>
+      <c r="F26" s="14"/>
       <c r="G26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,15 +1136,21 @@
       <c r="C27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="8">
+        <v>45747.0</v>
+      </c>
       <c r="E27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="9">
+        <v>45722.0</v>
+      </c>
       <c r="G27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="I27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1220,14 +1223,14 @@
       <c r="E30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="16" t="s">
         <v>27</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>0</v>
@@ -1272,13 +1275,13 @@
       <c r="C32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -1376,13 +1379,13 @@
       <c r="C36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="7" t="s">
@@ -1434,20 +1437,20 @@
       <c r="C38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>0</v>
@@ -1483,365 +1486,365 @@
       </c>
     </row>
     <row r="40">
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41">
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42">
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43">
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44">
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45">
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46">
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47">
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48">
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
     </row>
     <row r="49">
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50">
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51">
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52">
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
     </row>
     <row r="53">
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
     </row>
     <row r="54">
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
     </row>
     <row r="55">
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
     </row>
     <row r="56">
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57">
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
     </row>
     <row r="58">
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
     </row>
     <row r="59">
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60">
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
     </row>
     <row r="61">
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
     </row>
     <row r="62">
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
     </row>
     <row r="63">
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64">
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
     </row>
     <row r="65">
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
     </row>
     <row r="66">
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
     </row>
     <row r="67">
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68">
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69">
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
     </row>
     <row r="70">
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71">
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
     </row>
     <row r="72">
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
     </row>
     <row r="73">
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
     </row>
     <row r="74">
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
     </row>
     <row r="75">
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
     </row>
     <row r="76">
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
     </row>
     <row r="77">
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
     </row>
     <row r="78">
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
     </row>
     <row r="79">
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
     </row>
     <row r="80">
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
     </row>
     <row r="81">
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
     </row>
     <row r="82">
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
     </row>
     <row r="83">
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
     </row>
     <row r="84">
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
     </row>
     <row r="85">
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
     </row>
     <row r="86">
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
     </row>
     <row r="87">
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
     </row>
     <row r="88">
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
     </row>
     <row r="89">
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
     </row>
     <row r="90">
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5 H8 H11 H15 H18 H22 H26 H30 H32 H36 H38">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5 H8 H12 H15 H19 H23 H27 H30 H32 H36 H38">
       <formula1>"Hecho,Pendiente,Opcional"</formula1>
     </dataValidation>
   </dataValidations>
